--- a/ProyectoPooDist/excels/pedidos_calendario.xlsx
+++ b/ProyectoPooDist/excels/pedidos_calendario.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Fecha C</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>2024-10-09</t>
+  </si>
+  <si>
+    <t>2024-10-27</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
   </si>
 </sst>
 </file>
@@ -107,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -179,7 +185,7 @@
         <v>6.0</v>
       </c>
       <c r="E3" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b" s="0">
         <v>0</v>
@@ -297,6 +303,50 @@
       </c>
       <c r="J6" t="n" s="0">
         <v>60.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="E7" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="L7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="M7" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="N7" t="n" s="0">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/pedidos_calendario.xlsx
+++ b/ProyectoPooDist/excels/pedidos_calendario.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Fecha C</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>2024-10-28</t>
+  </si>
+  <si>
+    <t>2024-10-25</t>
+  </si>
+  <si>
+    <t>2024-10-26</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>2024-10-05</t>
   </si>
 </sst>
 </file>
@@ -113,7 +125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -153,21 +165,63 @@
         <v>9</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="E2" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b" s="0">
         <v>1</v>
       </c>
       <c r="G2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="H2" t="n" s="0">
+      <c r="L2" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="M2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="N2" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="O2" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="P2" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="Q2" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="R2" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="S2" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="T2" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="U2" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="V2" t="n" s="0">
         <v>150.0</v>
       </c>
     </row>
@@ -347,6 +401,106 @@
       </c>
       <c r="N7" t="n" s="0">
         <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E8" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="L8" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="M8" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="N8" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="O8" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="P8" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="Q8" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="R8" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="S8" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="T8" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="U8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="V8" t="n" s="0">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E9" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>20.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/pedidos_calendario.xlsx
+++ b/ProyectoPooDist/excels/pedidos_calendario.xlsx
@@ -125,7 +125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -271,21 +271,27 @@
         <v>0.0</v>
       </c>
       <c r="E4" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b" s="0">
         <v>0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H4" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
         <v>60.0</v>
       </c>
-      <c r="I4" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="J4" t="n" s="0">
+      <c r="K4" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="L4" t="n" s="0">
         <v>40.0</v>
       </c>
     </row>
@@ -373,34 +379,64 @@
         <v>4.0</v>
       </c>
       <c r="E7" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b" s="0">
         <v>1</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>1.0</v>
+        <v>150.0</v>
       </c>
       <c r="I7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>1150.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="L7" t="n" s="0">
+        <v>1515.0</v>
+      </c>
+      <c r="M7" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="J7" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K7" t="n" s="0">
+      <c r="N7" t="n" s="0">
+        <v>10150.0</v>
+      </c>
+      <c r="O7" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="P7" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="Q7" t="n" s="0">
         <v>5.0</v>
       </c>
-      <c r="L7" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="M7" t="n" s="0">
+      <c r="R7" t="n" s="0">
+        <v>1150.0</v>
+      </c>
+      <c r="S7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="T7" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="U7" t="n" s="0">
         <v>7.0</v>
       </c>
-      <c r="N7" t="n" s="0">
-        <v>1.0</v>
+      <c r="V7" t="n" s="0">
+        <v>115.0</v>
+      </c>
+      <c r="W7" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="X7" t="n" s="0">
+        <v>150.0</v>
       </c>
     </row>
     <row r="8">
@@ -417,58 +453,64 @@
         <v>8.0</v>
       </c>
       <c r="E8" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>150.0</v>
+        <v>132.0</v>
       </c>
       <c r="I8" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>150.0</v>
+        <v>240.0</v>
       </c>
       <c r="K8" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="L8" t="n" s="0">
-        <v>150.0</v>
+        <v>1050.0</v>
       </c>
       <c r="M8" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="N8" t="n" s="0">
-        <v>150.0</v>
+        <v>300.0</v>
       </c>
       <c r="O8" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="P8" t="n" s="0">
-        <v>150.0</v>
+        <v>410.0</v>
       </c>
       <c r="Q8" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="R8" t="n" s="0">
-        <v>150.0</v>
+        <v>310.0</v>
       </c>
       <c r="S8" t="n" s="0">
         <v>6.0</v>
       </c>
       <c r="T8" t="n" s="0">
-        <v>150.0</v>
+        <v>164.0</v>
       </c>
       <c r="U8" t="n" s="0">
         <v>7.0</v>
       </c>
       <c r="V8" t="n" s="0">
-        <v>150.0</v>
+        <v>200.0</v>
+      </c>
+      <c r="W8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="X8" t="n" s="0">
+        <v>300.0</v>
       </c>
     </row>
     <row r="9">
@@ -479,13 +521,13 @@
         <v>22</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E9" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b" s="0">
         <v>1</v>

--- a/ProyectoPooDist/excels/pedidos_calendario.xlsx
+++ b/ProyectoPooDist/excels/pedidos_calendario.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Fecha C</t>
   </si>
@@ -81,6 +81,21 @@
   </si>
   <si>
     <t>2024-10-05</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>2024-10-07</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
   </si>
 </sst>
 </file>
@@ -125,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -545,6 +560,110 @@
         <v>20.0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>111.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>11.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ProyectoPooDist/excels/pedidos_calendario.xlsx
+++ b/ProyectoPooDist/excels/pedidos_calendario.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Fecha C</t>
   </si>
@@ -96,6 +96,24 @@
   </si>
   <si>
     <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>2024-11-01</t>
+  </si>
+  <si>
+    <t>2024-11-02</t>
+  </si>
+  <si>
+    <t>2024-10-06</t>
+  </si>
+  <si>
+    <t>2024-10-13</t>
+  </si>
+  <si>
+    <t>2024-11-03</t>
+  </si>
+  <si>
+    <t>2024-11-04</t>
   </si>
 </sst>
 </file>
@@ -140,7 +158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -183,7 +201,7 @@
         <v>2.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="b" s="0">
         <v>0</v>
@@ -251,7 +269,7 @@
         <v>2.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E3" t="b" s="0">
         <v>0</v>
@@ -321,7 +339,7 @@
         <v>1.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E5" t="b" s="0">
         <v>1</v>
@@ -465,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="E8" t="b" s="0">
         <v>0</v>
@@ -597,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E11" t="b" s="0">
         <v>1</v>
@@ -620,13 +638,13 @@
         <v>25</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E12" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b" s="0">
         <v>1</v>
@@ -635,7 +653,7 @@
         <v>0.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>111.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="13">
@@ -662,6 +680,84 @@
       </c>
       <c r="H13" t="n" s="0">
         <v>11.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="E15" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="E16" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>192.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/pedidos_calendario.xlsx
+++ b/ProyectoPooDist/excels/pedidos_calendario.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Fecha C</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>2024-11-04</t>
+  </si>
+  <si>
+    <t>2024-10-30</t>
+  </si>
+  <si>
+    <t>2024-10-31</t>
   </si>
 </sst>
 </file>
@@ -158,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -342,28 +348,16 @@
         <v>4.0</v>
       </c>
       <c r="E5" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="b" s="0">
         <v>0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>450.0</v>
-      </c>
-      <c r="I5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="J5" t="n" s="0">
-        <v>130.0</v>
-      </c>
-      <c r="K5" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="L5" t="n" s="0">
-        <v>160.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="6">
@@ -380,21 +374,27 @@
         <v>0.0</v>
       </c>
       <c r="E6" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b" s="0">
         <v>1</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H6" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
         <v>50.0</v>
       </c>
-      <c r="I6" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="J6" t="n" s="0">
+      <c r="K6" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="L6" t="n" s="0">
         <v>60.0</v>
       </c>
     </row>
@@ -758,6 +758,102 @@
       </c>
       <c r="H16" t="n" s="0">
         <v>192.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E17" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>1555.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>1555.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>20000.0</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>160.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="J19" t="n" s="0">
+        <v>150.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/pedidos_calendario.xlsx
+++ b/ProyectoPooDist/excels/pedidos_calendario.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Fecha C</t>
   </si>
@@ -164,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -856,6 +856,32 @@
         <v>150.0</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ProyectoPooDist/excels/pedidos_calendario.xlsx
+++ b/ProyectoPooDist/excels/pedidos_calendario.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Fecha C</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>2024-11-29</t>
+  </si>
+  <si>
+    <t>2024-11-30</t>
   </si>
 </sst>
 </file>
@@ -185,7 +191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1007,6 +1013,32 @@
         <v>500.0</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C25" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="0">
+        <v>30.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ProyectoPooDist/excels/pedidos_calendario.xlsx
+++ b/ProyectoPooDist/excels/pedidos_calendario.xlsx
@@ -84,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -94,6 +94,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -107,7 +112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -163,7 +168,7 @@
         <v>7.0</v>
       </c>
       <c r="E2" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b" s="0">
         <v>1</v>
@@ -203,16 +208,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="11">
-        <v>45636.74438153935</v>
+        <v>45600.74865421296</v>
       </c>
       <c r="B4" t="n" s="11">
-        <v>45637.74441172454</v>
+        <v>45601.748717650466</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>46.0</v>
+        <v>5.0</v>
       </c>
       <c r="E4" t="b" s="0">
         <v>0</v>
@@ -221,30 +226,30 @@
         <v>1</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="12">
-        <v>45600.74865421296</v>
+        <v>45613.80034040509</v>
       </c>
       <c r="B5" t="n" s="12">
-        <v>45601.748717650466</v>
+        <v>45614.80037074074</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E5" t="b" s="0">
         <v>0</v>
@@ -253,30 +258,24 @@
         <v>1</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>60.0</v>
-      </c>
-      <c r="I5" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="J5" t="n" s="0">
-        <v>60.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="13">
-        <v>45604.75065545139</v>
+        <v>45589.80655793982</v>
       </c>
       <c r="B6" t="n" s="13">
-        <v>45605.750703136575</v>
+        <v>45589.806605694444</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>6.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>48.0</v>
+        <v>4.0</v>
       </c>
       <c r="E6" t="b" s="0">
         <v>0</v>
@@ -285,24 +284,24 @@
         <v>1</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>300.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="14">
-        <v>45613.80034040509</v>
+        <v>45638.0</v>
       </c>
       <c r="B7" t="n" s="14">
-        <v>45614.80037074074</v>
+        <v>45646.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E7" t="b" s="0">
         <v>0</v>
@@ -311,36 +310,166 @@
         <v>1</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>1000.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="15">
-        <v>45589.80655793982</v>
+        <v>45608.0</v>
       </c>
       <c r="B8" t="n" s="15">
-        <v>45589.806605694444</v>
+        <v>45609.0</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>6.0</v>
       </c>
       <c r="D8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n" s="0">
         <v>4.0</v>
       </c>
-      <c r="E8" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>9.0</v>
-      </c>
       <c r="H8" t="n" s="0">
-        <v>100.0</v>
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="16">
+        <v>45590.994721435185</v>
+      </c>
+      <c r="B9" t="n" s="16">
+        <v>45596.99474015046</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="17">
+        <v>45590.99483829861</v>
+      </c>
+      <c r="B10" t="n" s="17">
+        <v>45590.99487527778</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="18">
+        <v>45590.99655898148</v>
+      </c>
+      <c r="B11" t="n" s="18">
+        <v>45595.996575833335</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="19">
+        <v>45590.99839961805</v>
+      </c>
+      <c r="B12" t="n" s="19">
+        <v>45593.998416030096</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="20">
+        <v>45591.04245767361</v>
+      </c>
+      <c r="B13" t="n" s="20">
+        <v>45596.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/pedidos_calendario.xlsx
+++ b/ProyectoPooDist/excels/pedidos_calendario.xlsx
@@ -84,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -94,6 +94,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -104,7 +105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -148,10 +149,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="9">
-        <v>45595.54824630787</v>
+        <v>45596.56125197917</v>
       </c>
       <c r="B2" t="n" s="9">
-        <v>45596.548230925924</v>
+        <v>45596.56127027778</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>0.0</v>
@@ -160,13 +161,13 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b" s="0">
         <v>1</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="H2" t="n" s="0">
         <v>12.0</v>
@@ -174,10 +175,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n" s="10">
-        <v>45596.0</v>
+        <v>45594.69419355324</v>
       </c>
       <c r="B3" t="n" s="10">
-        <v>45596.5550725</v>
+        <v>45595.69422857639</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>0.0</v>
@@ -186,24 +187,90 @@
         <v>0.0</v>
       </c>
       <c r="E3" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b" s="0">
         <v>1</v>
       </c>
       <c r="G3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="H3" t="n" s="0">
-        <v>12.0</v>
+      <c r="L3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="N3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="P3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="R3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S3" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="T3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="V3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="X3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="Z3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AA3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="AB3" t="n" s="0">
+        <v>300.0</v>
+      </c>
+      <c r="AC3" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="AD3" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="11">
-        <v>45595.556004502316</v>
+        <v>45592.709687407405</v>
       </c>
       <c r="B4" t="n" s="11">
-        <v>45596.0</v>
+        <v>45593.709707581016</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>0.0</v>
@@ -212,30 +279,96 @@
         <v>0.0</v>
       </c>
       <c r="E4" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="L4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="N4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O4" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="P4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="R4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S4" t="n" s="0">
         <v>6.0</v>
       </c>
-      <c r="H4" t="n" s="0">
-        <v>12.0</v>
+      <c r="T4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="U4" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="V4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="W4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="X4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Y4" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="Z4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AA4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="AB4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AC4" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="AD4" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="12">
-        <v>45596.56125197917</v>
+        <v>45593.743458819445</v>
       </c>
       <c r="B5" t="n" s="12">
-        <v>45596.56127027778</v>
+        <v>45593.74351775463</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" t="b" s="0">
         <v>1</v>
@@ -244,10 +377,54 @@
         <v>1</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H5" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
         <v>12.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="13">
+        <v>45600.745575925925</v>
+      </c>
+      <c r="B6" t="n" s="13">
+        <v>45601.7457950463</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="L6" t="n" s="0">
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/pedidos_calendario.xlsx
+++ b/ProyectoPooDist/excels/pedidos_calendario.xlsx
@@ -84,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -99,13 +99,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -371,60 +383,648 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="b" s="0">
         <v>1</v>
       </c>
       <c r="G5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="L5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="N5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="P5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="R5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S5" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="T5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="U5" t="n" s="0">
         <v>7.0</v>
       </c>
-      <c r="H5" t="n" s="0">
+      <c r="V5" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="I5" t="n" s="0">
+      <c r="W5" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="X5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="Z5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AA5" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="AB5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AC5" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="AD5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AE5" t="n" s="0">
         <v>12.0</v>
       </c>
-      <c r="J5" t="n" s="0">
+      <c r="AF5" t="n" s="0">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="13">
-        <v>45600.745575925925</v>
+        <v>45611.0</v>
       </c>
       <c r="B6" t="n" s="13">
-        <v>45601.7457950463</v>
+        <v>45612.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E6" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="H6" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="I6" t="n" s="0">
+      <c r="J6" t="n" s="0">
+        <v>160.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="14">
+        <v>45604.36201568287</v>
+      </c>
+      <c r="B7" t="n" s="14">
+        <v>45605.36205538194</v>
+      </c>
+      <c r="C7" t="n" s="0">
         <v>9.0</v>
       </c>
-      <c r="J6" t="n" s="0">
+      <c r="D7" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="E7" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="15">
+        <v>45620.36455996528</v>
+      </c>
+      <c r="B8" t="n" s="15">
+        <v>45621.3645909375</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="L8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="N8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O8" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="P8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q8" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="R8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="S8" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="T8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="U8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="V8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="W8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="X8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Y8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="Z8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AA8" t="n" s="0">
         <v>10.0</v>
       </c>
-      <c r="K6" t="n" s="0">
+      <c r="AB8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AC8" t="n" s="0">
         <v>11.0</v>
       </c>
-      <c r="L6" t="n" s="0">
-        <v>15.0</v>
+      <c r="AD8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="AE8" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="AF8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="16">
+        <v>45624.365183622685</v>
+      </c>
+      <c r="B9" t="n" s="16">
+        <v>45624.365220671294</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="17">
+        <v>45593.36595806713</v>
+      </c>
+      <c r="B10" t="n" s="17">
+        <v>45594.36597908565</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="18">
+        <v>45595.0</v>
+      </c>
+      <c r="B11" t="n" s="18">
+        <v>45595.36783984954</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="19">
+        <v>45592.368151180555</v>
+      </c>
+      <c r="B12" t="n" s="19">
+        <v>45592.368172835646</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="20">
+        <v>45596.0</v>
+      </c>
+      <c r="B13" t="n" s="20">
+        <v>45596.384362592595</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="R13" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="S13" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="T13" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="U13" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="V13" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="W13" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="X13" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="Y13" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="Z13" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="AA13" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="AB13" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="AC13" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="AD13" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="AE13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="AF13" t="n" s="0">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="21">
+        <v>45596.389090069446</v>
+      </c>
+      <c r="B14" t="n" s="21">
+        <v>45596.38911347222</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="22">
+        <v>45593.39654479166</v>
+      </c>
+      <c r="B15" t="n" s="22">
+        <v>45593.39656918981</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="23">
+        <v>45618.39980284722</v>
+      </c>
+      <c r="B16" t="n" s="23">
+        <v>45619.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="E16" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="24">
+        <v>45617.41988295139</v>
+      </c>
+      <c r="B17" t="n" s="24">
+        <v>45619.41990259259</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="K17" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="L17" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="M17" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="N17" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="O17" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="P17" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="Q17" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="R17" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="S17" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="T17" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="U17" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="V17" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="W17" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="X17" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="Y17" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="Z17" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="AA17" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="AB17" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="AC17" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="AD17" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="AE17" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="AF17" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="25">
+        <v>45617.41988295139</v>
+      </c>
+      <c r="B18" t="n" s="25">
+        <v>45619.41990259259</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/pedidos_calendario.xlsx
+++ b/ProyectoPooDist/excels/pedidos_calendario.xlsx
@@ -84,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -111,13 +111,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AF20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -663,7 +665,7 @@
         <v>0.0</v>
       </c>
       <c r="E10" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b" s="0">
         <v>1</v>
@@ -689,7 +691,7 @@
         <v>0.0</v>
       </c>
       <c r="E11" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b" s="0">
         <v>1</v>
@@ -715,7 +717,7 @@
         <v>0.0</v>
       </c>
       <c r="E12" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b" s="0">
         <v>1</v>
@@ -1025,6 +1027,58 @@
       </c>
       <c r="H18" t="n" s="0">
         <v>100.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="26">
+        <v>45596.66649519676</v>
+      </c>
+      <c r="B19" t="n" s="26">
+        <v>45596.66651520834</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="27">
+        <v>45596.66649519676</v>
+      </c>
+      <c r="B20" t="n" s="27">
+        <v>45596.66651520834</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="b" s="0">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/pedidos_calendario.xlsx
+++ b/ProyectoPooDist/excels/pedidos_calendario.xlsx
@@ -84,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -94,6 +94,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -105,7 +106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -149,59 +150,65 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="9">
-        <v>45595.17627797454</v>
+        <v>45598.39099694444</v>
       </c>
       <c r="B2" t="n" s="9">
-        <v>45596.17626511574</v>
+        <v>45598.39103633102</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b" s="0">
         <v>1</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>60.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="10">
-        <v>45595.17627797454</v>
+        <v>45597.42511672454</v>
       </c>
       <c r="B3" t="n" s="10">
-        <v>45596.17626511574</v>
+        <v>45597.42515898148</v>
       </c>
       <c r="C3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
         <v>1.0</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="E3" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>12.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="11">
-        <v>45595.17627797454</v>
+        <v>45601.425523530095</v>
       </c>
       <c r="B4" t="n" s="11">
-        <v>45596.17626511574</v>
+        <v>45601.42560510417</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>0.0</v>
@@ -213,24 +220,24 @@
         <v>1</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>2.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="12">
-        <v>45595.17627797454</v>
+        <v>45602.42575918981</v>
       </c>
       <c r="B5" t="n" s="12">
-        <v>45596.17626511574</v>
+        <v>45602.425802094906</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="E5" t="b" s="0">
         <v>1</v>
@@ -239,30 +246,62 @@
         <v>1</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>2.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="13">
-        <v>45595.194816296294</v>
+        <v>45605.42656525463</v>
       </c>
       <c r="B6" t="n" s="13">
-        <v>45596.19483613426</v>
+        <v>45605.426600833336</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b" s="0">
         <v>1</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="14">
+        <v>45606.42668755787</v>
+      </c>
+      <c r="B7" t="n" s="14">
+        <v>45606.42672018518</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>450.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/pedidos_calendario.xlsx
+++ b/ProyectoPooDist/excels/pedidos_calendario.xlsx
@@ -105,7 +105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -149,56 +149,68 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="9">
-        <v>45595.17627797454</v>
+        <v>45596.26401456018</v>
       </c>
       <c r="B2" t="n" s="9">
-        <v>45596.17626511574</v>
+        <v>45596.26404509259</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="b" s="0">
         <v>0</v>
       </c>
       <c r="F2" t="b" s="0">
         <v>1</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>23.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="10">
-        <v>45595.17627797454</v>
+        <v>45596.26667651621</v>
       </c>
       <c r="B3" t="n" s="10">
-        <v>45596.17626511574</v>
+        <v>45596.26670530093</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b" s="0">
         <v>1</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>12.0</v>
+        <v>1000.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>15.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="11">
-        <v>45595.17627797454</v>
+        <v>45595.26862634259</v>
       </c>
       <c r="B4" t="n" s="11">
-        <v>45596.17626511574</v>
+        <v>45596.26866327546</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>0.0</v>
@@ -207,62 +219,62 @@
         <v>0.0</v>
       </c>
       <c r="E4" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>2.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="12">
-        <v>45595.17627797454</v>
+        <v>45595.270914050925</v>
       </c>
       <c r="B5" t="n" s="12">
-        <v>45596.17626511574</v>
+        <v>45595.27094239584</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="E5" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="b" s="0">
         <v>1</v>
-      </c>
-      <c r="G5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H5" t="n" s="0">
-        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="13">
-        <v>45595.194816296294</v>
+        <v>45595.27105150463</v>
       </c>
       <c r="B6" t="n" s="13">
-        <v>45596.19483613426</v>
+        <v>45595.271088877314</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b" s="0">
         <v>1</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>50.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/pedidos_calendario.xlsx
+++ b/ProyectoPooDist/excels/pedidos_calendario.xlsx
@@ -42,9 +42,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11.0"/>
@@ -84,7 +82,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -94,21 +92,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.3046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.3046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="7.953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.1328125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.734375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.63671875" customWidth="true" bestFit="true"/>
@@ -143,38 +140,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="9">
-        <v>45601.49662924768</v>
-      </c>
-      <c r="B2" t="n" s="9">
-        <v>45601.49665731481</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="b" s="0">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b" s="0">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>60.0</v>
-      </c>
-      <c r="I2" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="J2" t="n" s="0">
-        <v>100.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ProyectoPooDist/excels/pedidos_calendario.xlsx
+++ b/ProyectoPooDist/excels/pedidos_calendario.xlsx
@@ -42,7 +42,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11.0"/>
@@ -82,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -92,20 +94,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.1328125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.734375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.63671875" customWidth="true" bestFit="true"/>
@@ -140,6 +144,58 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="9">
+        <v>45644.148448182874</v>
+      </c>
+      <c r="B2" t="n" s="9">
+        <v>45652.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="10">
+        <v>45644.14986158565</v>
+      </c>
+      <c r="B3" t="n" s="10">
+        <v>45650.149886782405</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>9.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
